--- a/excel/main_code/2.xlsx
+++ b/excel/main_code/2.xlsx
@@ -427,7 +427,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
